--- a/height-by-select-countries-20160728/height-by-select-countries-20160728.xlsx
+++ b/height-by-select-countries-20160728/height-by-select-countries-20160728.xlsx
@@ -17,6 +17,9 @@
     <t>date</t>
   </si>
   <si>
+    <t>key</t>
+  </si>
+  <si>
     <t>South Korea Men</t>
   </si>
   <si>
@@ -44,9 +47,6 @@
     <t>1896</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
     <t>171.08</t>
   </si>
   <si>
@@ -263,586 +263,586 @@
     <t>159.34</t>
   </si>
   <si>
+    <t>171.95</t>
+  </si>
+  <si>
+    <t>158.31</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>172.63</t>
+  </si>
+  <si>
+    <t>159.41</t>
+  </si>
+  <si>
+    <t>172.14</t>
+  </si>
+  <si>
+    <t>158.56</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>172.75</t>
+  </si>
+  <si>
+    <t>159.49</t>
+  </si>
+  <si>
+    <t>172.33</t>
+  </si>
+  <si>
+    <t>158.83</t>
+  </si>
+  <si>
+    <t>1913</t>
+  </si>
+  <si>
+    <t>172.87</t>
+  </si>
+  <si>
+    <t>159.57</t>
+  </si>
+  <si>
+    <t>172.54</t>
+  </si>
+  <si>
+    <t>159.09</t>
+  </si>
+  <si>
+    <t>1914</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>159.66</t>
+  </si>
+  <si>
+    <t>172.74</t>
+  </si>
+  <si>
+    <t>159.36</t>
+  </si>
+  <si>
+    <t>1915</t>
+  </si>
+  <si>
+    <t>173.13</t>
+  </si>
+  <si>
+    <t>159.76</t>
+  </si>
+  <si>
+    <t>172.95</t>
+  </si>
+  <si>
+    <t>159.64</t>
+  </si>
+  <si>
+    <t>1916</t>
+  </si>
+  <si>
+    <t>173.27</t>
+  </si>
+  <si>
+    <t>159.87</t>
+  </si>
+  <si>
+    <t>173.16</t>
+  </si>
+  <si>
+    <t>159.91</t>
+  </si>
+  <si>
+    <t>1917</t>
+  </si>
+  <si>
+    <t>173.41</t>
+  </si>
+  <si>
+    <t>159.97</t>
+  </si>
+  <si>
+    <t>173.36</t>
+  </si>
+  <si>
+    <t>160.19</t>
+  </si>
+  <si>
+    <t>1918</t>
+  </si>
+  <si>
+    <t>173.54</t>
+  </si>
+  <si>
+    <t>160.09</t>
+  </si>
+  <si>
+    <t>173.56</t>
+  </si>
+  <si>
+    <t>160.46</t>
+  </si>
+  <si>
+    <t>1919</t>
+  </si>
+  <si>
+    <t>173.68</t>
+  </si>
+  <si>
+    <t>160.20</t>
+  </si>
+  <si>
+    <t>173.76</t>
+  </si>
+  <si>
+    <t>160.73</t>
+  </si>
+  <si>
+    <t>1920</t>
+  </si>
+  <si>
+    <t>173.82</t>
+  </si>
+  <si>
+    <t>160.32</t>
+  </si>
+  <si>
+    <t>173.95</t>
+  </si>
+  <si>
+    <t>160.99</t>
+  </si>
+  <si>
+    <t>1921</t>
+  </si>
+  <si>
+    <t>173.96</t>
+  </si>
+  <si>
+    <t>160.45</t>
+  </si>
+  <si>
+    <t>174.14</t>
+  </si>
+  <si>
+    <t>161.25</t>
+  </si>
+  <si>
+    <t>1922</t>
+  </si>
+  <si>
+    <t>174.11</t>
+  </si>
+  <si>
+    <t>160.57</t>
+  </si>
+  <si>
+    <t>174.32</t>
+  </si>
+  <si>
+    <t>161.50</t>
+  </si>
+  <si>
+    <t>1923</t>
+  </si>
+  <si>
+    <t>174.25</t>
+  </si>
+  <si>
+    <t>160.70</t>
+  </si>
+  <si>
+    <t>174.50</t>
+  </si>
+  <si>
+    <t>161.74</t>
+  </si>
+  <si>
+    <t>1924</t>
+  </si>
+  <si>
+    <t>174.39</t>
+  </si>
+  <si>
+    <t>160.83</t>
+  </si>
+  <si>
+    <t>174.66</t>
+  </si>
+  <si>
+    <t>161.98</t>
+  </si>
+  <si>
+    <t>1925</t>
+  </si>
+  <si>
+    <t>174.53</t>
+  </si>
+  <si>
+    <t>160.97</t>
+  </si>
+  <si>
+    <t>174.83</t>
+  </si>
+  <si>
+    <t>162.20</t>
+  </si>
+  <si>
+    <t>1926</t>
+  </si>
+  <si>
+    <t>174.67</t>
+  </si>
+  <si>
+    <t>161.11</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>162.43</t>
+  </si>
+  <si>
+    <t>1927</t>
+  </si>
+  <si>
+    <t>174.82</t>
+  </si>
+  <si>
+    <t>175.17</t>
+  </si>
+  <si>
+    <t>162.65</t>
+  </si>
+  <si>
+    <t>1928</t>
+  </si>
+  <si>
+    <t>174.96</t>
+  </si>
+  <si>
+    <t>161.39</t>
+  </si>
+  <si>
+    <t>175.34</t>
+  </si>
+  <si>
+    <t>162.86</t>
+  </si>
+  <si>
+    <t>1929</t>
+  </si>
+  <si>
+    <t>175.11</t>
+  </si>
+  <si>
+    <t>161.54</t>
+  </si>
+  <si>
+    <t>175.52</t>
+  </si>
+  <si>
+    <t>163.07</t>
+  </si>
+  <si>
+    <t>1930</t>
+  </si>
+  <si>
+    <t>175.25</t>
+  </si>
+  <si>
+    <t>161.69</t>
+  </si>
+  <si>
+    <t>175.70</t>
+  </si>
+  <si>
+    <t>163.28</t>
+  </si>
+  <si>
+    <t>1931</t>
+  </si>
+  <si>
+    <t>175.39</t>
+  </si>
+  <si>
+    <t>161.83</t>
+  </si>
+  <si>
+    <t>175.88</t>
+  </si>
+  <si>
+    <t>163.48</t>
+  </si>
+  <si>
+    <t>1932</t>
+  </si>
+  <si>
+    <t>161.97</t>
+  </si>
+  <si>
+    <t>176.07</t>
+  </si>
+  <si>
+    <t>163.68</t>
+  </si>
+  <si>
     <t>value</t>
   </si>
   <si>
-    <t>171.95</t>
-  </si>
-  <si>
-    <t>158.31</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>172.63</t>
-  </si>
-  <si>
-    <t>159.41</t>
-  </si>
-  <si>
-    <t>172.14</t>
-  </si>
-  <si>
-    <t>158.56</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>172.75</t>
-  </si>
-  <si>
-    <t>159.49</t>
-  </si>
-  <si>
-    <t>172.33</t>
+    <t>1933</t>
+  </si>
+  <si>
+    <t>175.64</t>
+  </si>
+  <si>
+    <t>162.11</t>
+  </si>
+  <si>
+    <t>176.25</t>
+  </si>
+  <si>
+    <t>163.88</t>
+  </si>
+  <si>
+    <t>1934</t>
+  </si>
+  <si>
+    <t>175.76</t>
+  </si>
+  <si>
+    <t>162.24</t>
+  </si>
+  <si>
+    <t>176.44</t>
+  </si>
+  <si>
+    <t>164.08</t>
+  </si>
+  <si>
+    <t>1935</t>
+  </si>
+  <si>
+    <t>162.36</t>
+  </si>
+  <si>
+    <t>176.63</t>
+  </si>
+  <si>
+    <t>164.28</t>
+  </si>
+  <si>
+    <t>1936</t>
+  </si>
+  <si>
+    <t>175.99</t>
+  </si>
+  <si>
+    <t>162.49</t>
+  </si>
+  <si>
+    <t>176.82</t>
+  </si>
+  <si>
+    <t>164.48</t>
   </si>
   <si>
     <t>headline</t>
   </si>
   <si>
-    <t>158.83</t>
-  </si>
-  <si>
-    <t>1913</t>
-  </si>
-  <si>
-    <t>172.87</t>
-  </si>
-  <si>
-    <t>159.57</t>
-  </si>
-  <si>
-    <t>172.54</t>
+    <t>1937</t>
+  </si>
+  <si>
+    <t>176.10</t>
+  </si>
+  <si>
+    <t>162.61</t>
+  </si>
+  <si>
+    <t>177.00</t>
+  </si>
+  <si>
+    <t>164.67</t>
   </si>
   <si>
     <t>The Headline For This Line Chart</t>
   </si>
   <si>
-    <t>159.09</t>
-  </si>
-  <si>
-    <t>1914</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>159.66</t>
-  </si>
-  <si>
-    <t>172.74</t>
-  </si>
-  <si>
-    <t>159.36</t>
-  </si>
-  <si>
-    <t>1915</t>
-  </si>
-  <si>
-    <t>173.13</t>
-  </si>
-  <si>
-    <t>159.76</t>
-  </si>
-  <si>
-    <t>172.95</t>
-  </si>
-  <si>
-    <t>159.64</t>
-  </si>
-  <si>
-    <t>1916</t>
+    <t>1938</t>
+  </si>
+  <si>
+    <t>176.21</t>
+  </si>
+  <si>
+    <t>162.72</t>
+  </si>
+  <si>
+    <t>177.18</t>
+  </si>
+  <si>
+    <t>164.86</t>
+  </si>
+  <si>
+    <t>1939</t>
+  </si>
+  <si>
+    <t>176.31</t>
+  </si>
+  <si>
+    <t>162.82</t>
+  </si>
+  <si>
+    <t>177.35</t>
+  </si>
+  <si>
+    <t>165.03</t>
+  </si>
+  <si>
+    <t>1940</t>
   </si>
   <si>
     <t>subhed</t>
   </si>
   <si>
-    <t>173.27</t>
-  </si>
-  <si>
-    <t>159.87</t>
-  </si>
-  <si>
-    <t>173.16</t>
-  </si>
-  <si>
-    <t>159.91</t>
-  </si>
-  <si>
-    <t>1917</t>
+    <t>176.40</t>
+  </si>
+  <si>
+    <t>162.91</t>
+  </si>
+  <si>
+    <t>177.51</t>
+  </si>
+  <si>
+    <t>165.20</t>
   </si>
   <si>
     <t>This is default text in the copytext spreadsheet for this graphic. &lt;a href="https://docs.google.com/spreadsheets/d/{{ COPY_GOOGLE_DOC_KEY }}/edit" target="_blank"&gt;Edit this spreadsheet&lt;/a&gt; (created when you added the graphic) to update the data and text. Delete any rows you don't need, and add others as needed. Don't forget to &lt;code&gt;fab update_copy:{{ slug }}&lt;/code&gt; to update the text or visit &lt;a href="http://127.0.0.1:8000/graphics/{{ slug }}/?refresh=1" target="_top"&gt;&lt;code&gt;http://127.0.0.1:8000/graphics/{{ slug }}/?refresh=1&lt;/code&gt;&lt;/a&gt; to refresh the data every time you reload the page!</t>
   </si>
   <si>
-    <t>173.41</t>
-  </si>
-  <si>
-    <t>159.97</t>
-  </si>
-  <si>
-    <t>173.36</t>
-  </si>
-  <si>
-    <t>160.19</t>
-  </si>
-  <si>
-    <t>1918</t>
-  </si>
-  <si>
-    <t>173.54</t>
-  </si>
-  <si>
-    <t>160.09</t>
-  </si>
-  <si>
-    <t>173.56</t>
-  </si>
-  <si>
-    <t>160.46</t>
-  </si>
-  <si>
-    <t>1919</t>
-  </si>
-  <si>
-    <t>173.68</t>
-  </si>
-  <si>
-    <t>160.20</t>
-  </si>
-  <si>
-    <t>173.76</t>
-  </si>
-  <si>
-    <t>160.73</t>
-  </si>
-  <si>
-    <t>1920</t>
-  </si>
-  <si>
-    <t>173.82</t>
-  </si>
-  <si>
-    <t>160.32</t>
-  </si>
-  <si>
-    <t>173.95</t>
-  </si>
-  <si>
-    <t>160.99</t>
-  </si>
-  <si>
-    <t>1921</t>
+    <t>1941</t>
+  </si>
+  <si>
+    <t>176.49</t>
+  </si>
+  <si>
+    <t>162.99</t>
+  </si>
+  <si>
+    <t>177.67</t>
+  </si>
+  <si>
+    <t>165.35</t>
+  </si>
+  <si>
+    <t>1942</t>
+  </si>
+  <si>
+    <t>176.57</t>
+  </si>
+  <si>
+    <t>163.05</t>
+  </si>
+  <si>
+    <t>177.83</t>
+  </si>
+  <si>
+    <t>165.49</t>
+  </si>
+  <si>
+    <t>1943</t>
+  </si>
+  <si>
+    <t>176.65</t>
+  </si>
+  <si>
+    <t>163.11</t>
+  </si>
+  <si>
+    <t>177.99</t>
+  </si>
+  <si>
+    <t>165.62</t>
+  </si>
+  <si>
+    <t>1944</t>
+  </si>
+  <si>
+    <t>176.72</t>
+  </si>
+  <si>
+    <t>163.16</t>
+  </si>
+  <si>
+    <t>178.16</t>
+  </si>
+  <si>
+    <t>165.74</t>
+  </si>
+  <si>
+    <t>1945</t>
   </si>
   <si>
     <t>footnote</t>
   </si>
   <si>
-    <t>173.96</t>
-  </si>
-  <si>
-    <t>160.45</t>
-  </si>
-  <si>
-    <t>174.14</t>
-  </si>
-  <si>
-    <t>161.25</t>
-  </si>
-  <si>
-    <t>1922</t>
-  </si>
-  <si>
-    <t>174.11</t>
+    <t>176.79</t>
+  </si>
+  <si>
+    <t>163.20</t>
+  </si>
+  <si>
+    <t>178.32</t>
+  </si>
+  <si>
+    <t>165.86</t>
+  </si>
+  <si>
+    <t>1946</t>
+  </si>
+  <si>
+    <t>176.85</t>
+  </si>
+  <si>
+    <t>163.23</t>
+  </si>
+  <si>
+    <t>178.50</t>
   </si>
   <si>
     <t>source</t>
   </si>
   <si>
-    <t>160.57</t>
-  </si>
-  <si>
-    <t>174.32</t>
-  </si>
-  <si>
-    <t>161.50</t>
-  </si>
-  <si>
-    <t>1923</t>
+    <t>165.98</t>
+  </si>
+  <si>
+    <t>1947</t>
+  </si>
+  <si>
+    <t>176.91</t>
+  </si>
+  <si>
+    <t>163.27</t>
+  </si>
+  <si>
+    <t>178.68</t>
+  </si>
+  <si>
+    <t>166.09</t>
+  </si>
+  <si>
+    <t>1948</t>
   </si>
   <si>
     <t>credit</t>
   </si>
   <si>
-    <t>174.25</t>
-  </si>
-  <si>
-    <t>160.70</t>
-  </si>
-  <si>
     <t>Matt Stiles/&lt;a href="http://www.thedailyviz.com"&gt;The Daily Viz&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>174.50</t>
-  </si>
-  <si>
-    <t>161.74</t>
-  </si>
-  <si>
-    <t>1924</t>
-  </si>
-  <si>
-    <t>174.39</t>
-  </si>
-  <si>
-    <t>160.83</t>
-  </si>
-  <si>
-    <t>174.66</t>
-  </si>
-  <si>
-    <t>161.98</t>
-  </si>
-  <si>
-    <t>1925</t>
-  </si>
-  <si>
-    <t>174.53</t>
-  </si>
-  <si>
-    <t>160.97</t>
-  </si>
-  <si>
-    <t>174.83</t>
-  </si>
-  <si>
-    <t>162.20</t>
-  </si>
-  <si>
-    <t>1926</t>
-  </si>
-  <si>
-    <t>174.67</t>
-  </si>
-  <si>
-    <t>161.11</t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>162.43</t>
-  </si>
-  <si>
-    <t>1927</t>
-  </si>
-  <si>
-    <t>174.82</t>
-  </si>
-  <si>
-    <t>175.17</t>
-  </si>
-  <si>
-    <t>162.65</t>
-  </si>
-  <si>
-    <t>1928</t>
-  </si>
-  <si>
-    <t>174.96</t>
-  </si>
-  <si>
-    <t>161.39</t>
-  </si>
-  <si>
-    <t>175.34</t>
-  </si>
-  <si>
-    <t>162.86</t>
-  </si>
-  <si>
-    <t>1929</t>
-  </si>
-  <si>
-    <t>175.11</t>
-  </si>
-  <si>
-    <t>161.54</t>
-  </si>
-  <si>
-    <t>175.52</t>
-  </si>
-  <si>
-    <t>163.07</t>
-  </si>
-  <si>
-    <t>1930</t>
-  </si>
-  <si>
-    <t>175.25</t>
-  </si>
-  <si>
-    <t>161.69</t>
-  </si>
-  <si>
-    <t>175.70</t>
-  </si>
-  <si>
-    <t>163.28</t>
-  </si>
-  <si>
-    <t>1931</t>
-  </si>
-  <si>
-    <t>175.39</t>
-  </si>
-  <si>
-    <t>161.83</t>
-  </si>
-  <si>
-    <t>175.88</t>
-  </si>
-  <si>
-    <t>163.48</t>
-  </si>
-  <si>
-    <t>1932</t>
-  </si>
-  <si>
-    <t>161.97</t>
-  </si>
-  <si>
-    <t>176.07</t>
-  </si>
-  <si>
-    <t>163.68</t>
-  </si>
-  <si>
-    <t>1933</t>
-  </si>
-  <si>
-    <t>175.64</t>
-  </si>
-  <si>
-    <t>162.11</t>
-  </si>
-  <si>
-    <t>176.25</t>
-  </si>
-  <si>
-    <t>163.88</t>
-  </si>
-  <si>
-    <t>1934</t>
-  </si>
-  <si>
-    <t>175.76</t>
-  </si>
-  <si>
-    <t>162.24</t>
-  </si>
-  <si>
-    <t>176.44</t>
-  </si>
-  <si>
-    <t>164.08</t>
-  </si>
-  <si>
-    <t>1935</t>
-  </si>
-  <si>
-    <t>162.36</t>
-  </si>
-  <si>
-    <t>176.63</t>
-  </si>
-  <si>
-    <t>164.28</t>
-  </si>
-  <si>
-    <t>1936</t>
-  </si>
-  <si>
-    <t>175.99</t>
-  </si>
-  <si>
-    <t>162.49</t>
-  </si>
-  <si>
-    <t>176.82</t>
-  </si>
-  <si>
-    <t>164.48</t>
-  </si>
-  <si>
-    <t>1937</t>
-  </si>
-  <si>
-    <t>176.10</t>
-  </si>
-  <si>
-    <t>162.61</t>
-  </si>
-  <si>
-    <t>177.00</t>
-  </si>
-  <si>
-    <t>164.67</t>
-  </si>
-  <si>
-    <t>1938</t>
-  </si>
-  <si>
-    <t>176.21</t>
-  </si>
-  <si>
-    <t>162.72</t>
-  </si>
-  <si>
-    <t>177.18</t>
-  </si>
-  <si>
-    <t>164.86</t>
-  </si>
-  <si>
-    <t>1939</t>
-  </si>
-  <si>
-    <t>176.31</t>
-  </si>
-  <si>
-    <t>162.82</t>
-  </si>
-  <si>
-    <t>177.35</t>
-  </si>
-  <si>
-    <t>165.03</t>
-  </si>
-  <si>
-    <t>1940</t>
-  </si>
-  <si>
-    <t>176.40</t>
-  </si>
-  <si>
-    <t>162.91</t>
-  </si>
-  <si>
-    <t>177.51</t>
-  </si>
-  <si>
-    <t>165.20</t>
-  </si>
-  <si>
-    <t>1941</t>
-  </si>
-  <si>
-    <t>176.49</t>
-  </si>
-  <si>
-    <t>162.99</t>
-  </si>
-  <si>
-    <t>177.67</t>
-  </si>
-  <si>
-    <t>165.35</t>
-  </si>
-  <si>
-    <t>1942</t>
-  </si>
-  <si>
-    <t>176.57</t>
-  </si>
-  <si>
-    <t>163.05</t>
-  </si>
-  <si>
-    <t>177.83</t>
-  </si>
-  <si>
-    <t>165.49</t>
-  </si>
-  <si>
-    <t>1943</t>
-  </si>
-  <si>
-    <t>176.65</t>
-  </si>
-  <si>
-    <t>163.11</t>
-  </si>
-  <si>
-    <t>177.99</t>
-  </si>
-  <si>
-    <t>165.62</t>
-  </si>
-  <si>
-    <t>1944</t>
-  </si>
-  <si>
-    <t>176.72</t>
-  </si>
-  <si>
-    <t>163.16</t>
-  </si>
-  <si>
-    <t>178.16</t>
-  </si>
-  <si>
-    <t>165.74</t>
-  </si>
-  <si>
-    <t>1945</t>
-  </si>
-  <si>
-    <t>176.79</t>
-  </si>
-  <si>
-    <t>163.20</t>
-  </si>
-  <si>
-    <t>178.32</t>
-  </si>
-  <si>
-    <t>165.86</t>
-  </si>
-  <si>
-    <t>1946</t>
-  </si>
-  <si>
-    <t>176.85</t>
-  </si>
-  <si>
-    <t>163.23</t>
-  </si>
-  <si>
-    <t>178.50</t>
-  </si>
-  <si>
-    <t>165.98</t>
-  </si>
-  <si>
-    <t>1947</t>
-  </si>
-  <si>
-    <t>176.91</t>
-  </si>
-  <si>
-    <t>163.27</t>
-  </si>
-  <si>
-    <t>178.68</t>
-  </si>
-  <si>
-    <t>166.09</t>
-  </si>
-  <si>
-    <t>1948</t>
   </si>
   <si>
     <t>176.97</t>
@@ -1475,52 +1475,47 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1530,15 +1525,18 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1550,10 +1548,10 @@
   <sheetData>
     <row r="1" ht="33.0" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>83</v>
+        <v>193</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -1582,10 +1580,10 @@
     </row>
     <row r="2" ht="33.0" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>95</v>
+        <v>213</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>101</v>
+        <v>219</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -1614,10 +1612,10 @@
     </row>
     <row r="3" ht="33.0" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>114</v>
+        <v>231</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>120</v>
+        <v>236</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -1646,7 +1644,7 @@
     </row>
     <row r="4" ht="33.0" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>141</v>
+        <v>258</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
@@ -1676,7 +1674,7 @@
     </row>
     <row r="5" ht="33.0" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>148</v>
+        <v>267</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
@@ -1706,10 +1704,10 @@
     </row>
     <row r="6" ht="33.0" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>153</v>
+        <v>275</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>156</v>
+        <v>276</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -2023,6 +2021,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2037,28 +2038,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -2073,7 +2074,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5">
         <v>159.75</v>
@@ -2494,10 +2495,10 @@
         <v>82</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="J16" s="5">
         <v>163.09</v>
@@ -2508,7 +2509,7 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="5">
         <v>161.78</v>
@@ -2517,16 +2518,16 @@
         <v>145.98</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="J17" s="5">
         <v>163.21</v>
@@ -2537,7 +2538,7 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18" s="5">
         <v>161.92</v>
@@ -2546,16 +2547,16 @@
         <v>146.23</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="J18" s="5">
         <v>163.34</v>
@@ -2566,7 +2567,7 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B19" s="5">
         <v>162.06</v>
@@ -2575,16 +2576,16 @@
         <v>146.48</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="J19" s="5">
         <v>163.47</v>
@@ -2595,7 +2596,7 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B20" s="5">
         <v>162.2</v>
@@ -2604,16 +2605,16 @@
         <v>146.73</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="J20" s="5">
         <v>163.6</v>
@@ -2624,7 +2625,7 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B21" s="5">
         <v>162.35</v>
@@ -2633,16 +2634,16 @@
         <v>146.98</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="J21" s="5">
         <v>163.73</v>
@@ -2653,7 +2654,7 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B22" s="5">
         <v>162.49</v>
@@ -2662,16 +2663,16 @@
         <v>147.23</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J22" s="5">
         <v>163.85</v>
@@ -2682,7 +2683,7 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B23" s="5">
         <v>162.64</v>
@@ -2691,16 +2692,16 @@
         <v>147.49</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J23" s="5">
         <v>163.97</v>
@@ -2711,7 +2712,7 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B24" s="5">
         <v>162.8</v>
@@ -2720,16 +2721,16 @@
         <v>147.75</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="J24" s="5">
         <v>164.09</v>
@@ -2740,7 +2741,7 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B25" s="5">
         <v>162.95</v>
@@ -2749,16 +2750,16 @@
         <v>148.01</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="J25" s="5">
         <v>164.21</v>
@@ -2769,7 +2770,7 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B26" s="5">
         <v>163.11</v>
@@ -2778,16 +2779,16 @@
         <v>148.28</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="J26" s="5">
         <v>164.31</v>
@@ -2798,7 +2799,7 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B27" s="5">
         <v>163.27</v>
@@ -2807,16 +2808,16 @@
         <v>148.55</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="J27" s="5">
         <v>164.42</v>
@@ -2827,7 +2828,7 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B28" s="5">
         <v>163.43</v>
@@ -2836,16 +2837,16 @@
         <v>148.82</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="J28" s="5">
         <v>164.52</v>
@@ -2856,7 +2857,7 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B29" s="5">
         <v>163.59</v>
@@ -2865,16 +2866,16 @@
         <v>149.1</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="J29" s="5">
         <v>164.61</v>
@@ -2885,7 +2886,7 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B30" s="5">
         <v>163.75</v>
@@ -2894,16 +2895,16 @@
         <v>149.37</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="J30" s="5">
         <v>164.7</v>
@@ -2914,7 +2915,7 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B31" s="5">
         <v>163.91</v>
@@ -2923,16 +2924,16 @@
         <v>149.65</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="J31" s="5">
         <v>164.78</v>
@@ -2943,7 +2944,7 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B32" s="5">
         <v>164.07</v>
@@ -2952,16 +2953,16 @@
         <v>149.93</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="J32" s="5">
         <v>164.87</v>
@@ -2972,7 +2973,7 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B33" s="5">
         <v>164.24</v>
@@ -2981,16 +2982,16 @@
         <v>150.21</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="J33" s="5">
         <v>164.95</v>
@@ -3001,7 +3002,7 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B34" s="5">
         <v>164.41</v>
@@ -3010,16 +3011,16 @@
         <v>150.5</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="J34" s="5">
         <v>165.03</v>
@@ -3030,7 +3031,7 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B35" s="5">
         <v>164.58</v>
@@ -3039,16 +3040,16 @@
         <v>150.79</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J35" s="5">
         <v>165.11</v>
@@ -3059,7 +3060,7 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B36" s="5">
         <v>164.76</v>
@@ -3068,16 +3069,16 @@
         <v>151.08</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="J36" s="5">
         <v>165.19</v>
@@ -3088,7 +3089,7 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B37" s="5">
         <v>164.93</v>
@@ -3097,16 +3098,16 @@
         <v>151.37</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="J37" s="5">
         <v>165.26</v>
@@ -3117,7 +3118,7 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B38" s="5">
         <v>165.11</v>
@@ -3126,16 +3127,16 @@
         <v>151.66</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="J38" s="5">
         <v>165.34</v>
@@ -3146,7 +3147,7 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B39" s="5">
         <v>165.28</v>
@@ -3155,16 +3156,16 @@
         <v>151.95</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="J39" s="5">
         <v>165.41</v>
@@ -3175,7 +3176,7 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B40" s="5">
         <v>165.45</v>
@@ -3184,16 +3185,16 @@
         <v>152.23</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="J40" s="5">
         <v>165.49</v>
@@ -3204,7 +3205,7 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B41" s="5">
         <v>165.62</v>
@@ -3213,16 +3214,16 @@
         <v>152.51</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="J41" s="5">
         <v>165.57</v>
@@ -3233,7 +3234,7 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B42" s="5">
         <v>165.79</v>
@@ -3242,16 +3243,16 @@
         <v>152.8</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="J42" s="5">
         <v>165.64</v>
@@ -3262,7 +3263,7 @@
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B43" s="5">
         <v>165.96</v>
@@ -3271,16 +3272,16 @@
         <v>153.08</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="J43" s="5">
         <v>165.72</v>
@@ -3291,7 +3292,7 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B44" s="5">
         <v>166.13</v>
@@ -3300,16 +3301,16 @@
         <v>153.35</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="J44" s="5">
         <v>165.8</v>
@@ -3320,7 +3321,7 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B45" s="5">
         <v>166.3</v>
@@ -3329,16 +3330,16 @@
         <v>153.63</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="J45" s="5">
         <v>165.88</v>
@@ -3349,7 +3350,7 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B46" s="5">
         <v>166.47</v>
@@ -3358,16 +3359,16 @@
         <v>153.89</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="J46" s="5">
         <v>165.96</v>
@@ -3378,7 +3379,7 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B47" s="5">
         <v>166.64</v>
@@ -3387,16 +3388,16 @@
         <v>154.16</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J47" s="5">
         <v>166.04</v>
@@ -3407,7 +3408,7 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B48" s="5">
         <v>166.81</v>
@@ -3416,16 +3417,16 @@
         <v>154.41</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J48" s="5">
         <v>166.12</v>
@@ -3436,7 +3437,7 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B49" s="5">
         <v>166.98</v>
@@ -3445,16 +3446,16 @@
         <v>154.66</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J49" s="5">
         <v>166.21</v>
@@ -3465,7 +3466,7 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B50" s="5">
         <v>167.16</v>
@@ -3474,16 +3475,16 @@
         <v>154.9</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J50" s="5">
         <v>166.31</v>
@@ -3494,7 +3495,7 @@
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B51" s="5">
         <v>167.33</v>
@@ -3503,16 +3504,16 @@
         <v>155.14</v>
       </c>
       <c r="D51" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="G51" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="J51" s="5">
         <v>166.42</v>
@@ -3523,7 +3524,7 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B52" s="5">
         <v>167.51</v>
@@ -3532,16 +3533,16 @@
         <v>155.37</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E52" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G52" s="4" t="s">
         <v>268</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>270</v>
       </c>
       <c r="J52" s="5">
         <v>166.54</v>
@@ -3552,7 +3553,7 @@
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B53" s="5">
         <v>167.7</v>
@@ -3561,16 +3562,16 @@
         <v>155.59</v>
       </c>
       <c r="D53" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="G53" s="4" t="s">
         <v>273</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>275</v>
       </c>
       <c r="J53" s="5">
         <v>166.66</v>
@@ -3581,7 +3582,7 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B54" s="5">
         <v>167.88</v>
@@ -4112,7 +4113,7 @@
         <v>159.1</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>367</v>
@@ -4373,7 +4374,7 @@
         <v>160.37</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>406</v>
@@ -4576,7 +4577,7 @@
         <v>161.1</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>431</v>
@@ -4753,7 +4754,7 @@
         <v>376</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>432</v>
